--- a/data/trans_camb/P34_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-14.6464395065139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-18.6031578856983</v>
+        <v>-18.60315788569831</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-10.02273673423941</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.23632956477054</v>
+        <v>-18.76208018877191</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-21.31170006890811</v>
+        <v>-21.26247944435449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-27.43925603819461</v>
+        <v>-27.39777386387518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.89025600745647</v>
+        <v>-16.0459712346961</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-19.85738573475988</v>
+        <v>-20.69273699547151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.49224801890296</v>
+        <v>-16.81851695880842</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-15.77446073508968</v>
+        <v>-15.72879117597548</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-19.11122820874493</v>
+        <v>-19.12918409183144</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.85365120079884</v>
+        <v>-20.03367452180424</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.023371281402687</v>
+        <v>-5.430439582615895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.458041755576675</v>
+        <v>-7.690877361946667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.913735796899072</v>
+        <v>-9.674127996231055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.800771424470219</v>
+        <v>-2.988191477070227</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.187939197718592</v>
+        <v>-7.360104162679493</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5336883512583777</v>
+        <v>-0.3035385237695332</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.695369032262533</v>
+        <v>-6.608339494129938</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-9.677437662480246</v>
+        <v>-9.76663119033115</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.663120089362964</v>
+        <v>-7.827175173749653</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2742394417534661</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.348324903889204</v>
+        <v>-0.3483249038892042</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1881223133100131</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3237079612522479</v>
+        <v>-0.3304015883631407</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3756390729811745</v>
+        <v>-0.377938902233625</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5016994079223143</v>
+        <v>-0.4870814670214694</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2820403618397871</v>
+        <v>-0.2876337725322667</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3535543667626291</v>
+        <v>-0.3661644573778614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3020111200065468</v>
+        <v>-0.3079290141954277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2827724551213088</v>
+        <v>-0.290295384859698</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3438100020733997</v>
+        <v>-0.3443396798552911</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3570375380471527</v>
+        <v>-0.3650991022660554</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1182670630524102</v>
+        <v>-0.1070258008166391</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1648959809418789</v>
+        <v>-0.1494266971261147</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1977848216850806</v>
+        <v>-0.1820458791146323</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.04990537534681211</v>
+        <v>-0.06059208669838562</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1383113341647253</v>
+        <v>-0.1468825068859732</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005519452368389619</v>
+        <v>-0.008377003170397206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.129141882336928</v>
+        <v>-0.1318076109012782</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1918147236712054</v>
+        <v>-0.1876208765625672</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1464501127558638</v>
+        <v>-0.1484482779652777</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-7.014998629300035</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.637717891020515</v>
+        <v>-3.63771789102052</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-6.010181940223447</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.7853726364243</v>
+        <v>-11.83682768594982</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.2682188986288</v>
+        <v>-12.14623161419211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.788113357170634</v>
+        <v>-9.838804175031248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.02311819521625</v>
+        <v>-10.85107528397377</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.72929270791352</v>
+        <v>-10.86383345501092</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.188349736990413</v>
+        <v>-4.385171506256823</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-10.21647632126669</v>
+        <v>-10.13393155800219</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.92536562584897</v>
+        <v>-10.37554042905412</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.530141482696263</v>
+        <v>-5.362259194867136</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.058188424603297</v>
+        <v>-1.905467022865055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.796238761366465</v>
+        <v>-1.766140861878286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.44322833076176</v>
+        <v>3.559479550710099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.02298328247017</v>
+        <v>-0.62589724224263</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.5179842003239444</v>
+        <v>-0.2175961652080479</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.292925470571415</v>
+        <v>6.918670933445334</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-3.30837618884775</v>
+        <v>-3.048301290969664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.728204571378219</v>
+        <v>-2.82129643466317</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.916845856983838</v>
+        <v>3.160593611209069</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2065929849953753</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1071314532461994</v>
+        <v>-0.1071314532461995</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2077690048014318</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3280821153535323</v>
+        <v>-0.3301263833000729</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3404224887002941</v>
+        <v>-0.3358039437289285</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2679478936723432</v>
+        <v>-0.2749901316415891</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3540989378351576</v>
+        <v>-0.3463575260837913</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3422328182772033</v>
+        <v>-0.3419556869322878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1297815815774498</v>
+        <v>-0.1380269528067336</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3062556223779213</v>
+        <v>-0.3014010270136952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2965826758652363</v>
+        <v>-0.3062732220194426</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1688563192525878</v>
+        <v>-0.1607412885989532</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.06619828602383601</v>
+        <v>-0.06206352822023266</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.06435690995078294</v>
+        <v>-0.05777929876925347</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1090270466999387</v>
+        <v>0.1132511456525259</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04005049116236246</v>
+        <v>-0.02359375568319077</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01992350566848175</v>
+        <v>-0.007108884746163924</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2778602746861066</v>
+        <v>0.2673617662228949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1083774221778878</v>
+        <v>-0.1013543682506697</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09273031887844438</v>
+        <v>-0.09331433788075809</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09500382353933512</v>
+        <v>0.1062922707299469</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.667966118064242</v>
+        <v>-6.75913569572206</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.938825947871213</v>
+        <v>-3.822670069103863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.043588670164904</v>
+        <v>-0.9377590228601393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.056606826645927</v>
+        <v>-7.105443057271676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.787796668468675</v>
+        <v>-3.92919854962188</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6000763592531712</v>
+        <v>0.6065614182492365</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.752010988605417</v>
+        <v>-5.65135874163303</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.481245380688713</v>
+        <v>-2.50829040826746</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9906185841691519</v>
+        <v>1.521388387195369</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.180846963520199</v>
+        <v>2.853910351327364</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.939865874508773</v>
+        <v>6.23537212049112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.258479506908957</v>
+        <v>9.538990759500619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3965214412788935</v>
+        <v>0.5171715964868807</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.722836237705349</v>
+        <v>4.419168787297535</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.934909918051693</v>
+        <v>8.950301304788816</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.663940991252559</v>
+        <v>0.5156237751139375</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.036080691388348</v>
+        <v>3.950924359510009</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.006008614706865</v>
+        <v>8.104073950656135</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2389578830816403</v>
+        <v>-0.2424169521976839</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1406925830556254</v>
+        <v>-0.1382636988489026</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03565450537048891</v>
+        <v>-0.03555855514311588</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3782063169017181</v>
+        <v>-0.3432588667189176</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1913631206357333</v>
+        <v>-0.1923410605075012</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03392197944660734</v>
+        <v>0.03873161160271187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.245284926356553</v>
+        <v>-0.2403117790737516</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1016481514845297</v>
+        <v>-0.1050460111023901</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.04073604635106127</v>
+        <v>0.0628301503167409</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1359170474815637</v>
+        <v>0.1239402186924023</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2527408095284999</v>
+        <v>0.2686955817098731</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4186239118251111</v>
+        <v>0.398527996212793</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.02163732867147439</v>
+        <v>0.03373012440081439</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2949882618708429</v>
+        <v>0.265314182630896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5341979045950496</v>
+        <v>0.5567686295000452</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03340800009606291</v>
+        <v>0.023965916048928</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2001317442187731</v>
+        <v>0.191729445177312</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3819354046780141</v>
+        <v>0.394466947023889</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.9590468600430169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.418575581167463</v>
+        <v>0.4185755811674685</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.801839537616713</v>
@@ -1297,7 +1297,7 @@
         <v>5.652592863409206</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.51844499322531</v>
+        <v>11.51844499322532</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.915073908489493</v>
@@ -1306,7 +1306,7 @@
         <v>2.332946908179256</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.913038351741889</v>
+        <v>5.913038351741873</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.23452989953602</v>
+        <v>-12.98067562563961</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.347895394600264</v>
+        <v>-6.782058593047132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.298814296109422</v>
+        <v>-5.569089275277663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.909546158809837</v>
+        <v>-2.286643234867647</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9343621682122792</v>
+        <v>1.189761068023698</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.249817855877675</v>
+        <v>7.024354362578644</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.392176239060279</v>
+        <v>-5.347608864948423</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.428205124620632</v>
+        <v>-1.590948901642421</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.263851983597585</v>
+        <v>2.675990867015653</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.271607953123006</v>
+        <v>-1.331259220611375</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.665269179327124</v>
+        <v>4.594238573738485</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.895973562661442</v>
+        <v>6.055879641812253</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.360106932611149</v>
+        <v>7.323978881073454</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.19287076654041</v>
+        <v>10.40779211811602</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.32832503231939</v>
+        <v>15.61072021174526</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.638536074111683</v>
+        <v>1.834611394216236</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.262364991821371</v>
+        <v>6.199340802466948</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.432195154975842</v>
+        <v>9.716818056170647</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.02919795330004991</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.0127434339036579</v>
+        <v>0.01274343390365807</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1845935574610144</v>
@@ -1402,7 +1402,7 @@
         <v>0.3724097013860425</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7588695602200957</v>
+        <v>0.758869560220096</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.07983413849852</v>
@@ -1411,7 +1411,7 @@
         <v>0.09725410896761673</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2464982268451247</v>
+        <v>0.246498226845124</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3422576811442859</v>
+        <v>-0.3644884746411217</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2049319692208119</v>
+        <v>-0.1855303829738401</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1469000820791628</v>
+        <v>-0.15327170964159</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1117253051562122</v>
+        <v>-0.1349988001731251</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0481540948166308</v>
+        <v>0.05337211362742675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3929768862840448</v>
+        <v>0.3825485306592251</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.210386786608751</v>
+        <v>-0.2048794715621308</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05377908222959241</v>
+        <v>-0.06280382388523226</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0855707820155171</v>
+        <v>0.1046775105680005</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03697298243612804</v>
+        <v>-0.04317384314146393</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1588578372066308</v>
+        <v>0.1566054683854387</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1992275769519403</v>
+        <v>0.2061486741392847</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5652701305767251</v>
+        <v>0.5779044838195292</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8119632309414266</v>
+        <v>0.8007684454269347</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.210536288816211</v>
+        <v>1.214230098835853</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0730649922271492</v>
+        <v>0.09042069776559671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2947978189259119</v>
+        <v>0.2818220273765625</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4315843322407367</v>
+        <v>0.4433459668205576</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>4.921721552421193</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.161604834713794</v>
+        <v>3.161604834713783</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.50450967626795</v>
+        <v>-14.79162715117869</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.316373560452378</v>
+        <v>-2.59505681661607</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.966562091405829</v>
+        <v>-4.831432242318986</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.713848482395779</v>
+        <v>-4.807198306440876</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3155708376815278</v>
+        <v>-0.6904067628587055</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.164921238631952</v>
+        <v>-0.3088937740770484</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.885691012175265</v>
+        <v>-8.138561782225452</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5989344653304615</v>
+        <v>0.6369702916542386</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.591078551911276</v>
+        <v>-0.8960708426203451</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.055334847168039</v>
+        <v>-1.631160789811113</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.81518987076675</v>
+        <v>10.6623310004449</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.278074516699331</v>
+        <v>7.367771685260569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.337795423642693</v>
+        <v>7.283861715955041</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.8584229520471</v>
+        <v>11.57583993557061</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.789583134465678</v>
+        <v>9.565550312463532</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.652629238754904</v>
+        <v>0.4069740270456083</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.053406404847879</v>
+        <v>9.233145097948229</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.806339059363925</v>
+        <v>7.072921890023</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1742339777445901</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.111924045385648</v>
+        <v>0.1119240453856476</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3924621165527345</v>
+        <v>-0.3839309762027238</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08722365632638848</v>
+        <v>-0.06689110256235517</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1305154034486762</v>
+        <v>-0.1276002011009795</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1905413011876425</v>
+        <v>-0.1952791006202359</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01173341918285639</v>
+        <v>-0.02996067893942689</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.008207301480583724</v>
+        <v>-0.01239693164204559</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2599391270905348</v>
+        <v>-0.2669706616938254</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01937272157046827</v>
+        <v>0.02188708984547875</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.02007946262392217</v>
+        <v>-0.03061370239545629</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.06816835891976177</v>
+        <v>-0.04384344298227247</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3466741457335655</v>
+        <v>0.3407498531503036</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2441226788112227</v>
+        <v>0.2394657330005366</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3718724009171306</v>
+        <v>0.3730694973433104</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6161583840305254</v>
+        <v>0.6087264066307995</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5203551675225744</v>
+        <v>0.5008736147012426</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02555154938562382</v>
+        <v>0.01213396793257673</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.350494836663326</v>
+        <v>0.357084711942992</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2617286833020608</v>
+        <v>0.2681794889178082</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>3.453680321993252</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.710618382159637</v>
+        <v>-5.710618382159621</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-16.43498608799558</v>
+        <v>-15.96166540083805</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.254064534483442</v>
+        <v>-5.332632004368159</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-19.76130761322778</v>
+        <v>-19.77808821325988</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.842123615936711</v>
+        <v>-6.214386172186036</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.819983920745698</v>
+        <v>-3.821225159371069</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.145275432822066</v>
+        <v>-6.507319421937771</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.511494798379564</v>
+        <v>-8.540581992166814</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.373892817013872</v>
+        <v>-2.527355313860573</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-10.26121398757192</v>
+        <v>-10.45258940063043</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.6554118166017077</v>
+        <v>0.6638542957007909</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.23744326847202</v>
+        <v>9.967371430237804</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-5.397688427189236</v>
+        <v>-5.176453195006374</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.49016067560561</v>
+        <v>8.30447706407746</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.26305016288614</v>
+        <v>10.862160051524</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.715238043053643</v>
+        <v>5.525586141811593</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.804378648512943</v>
+        <v>2.52822472952883</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.068409645626122</v>
+        <v>8.516563001006668</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.8782993371536717</v>
+        <v>-1.243020860039231</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.07818827104956337</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1292833546525877</v>
+        <v>-0.1292833546525873</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2984435043607019</v>
+        <v>-0.29522395526646</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1141070340986515</v>
+        <v>-0.1000963391055808</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3554164756020741</v>
+        <v>-0.3508674741208364</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1640775199423923</v>
+        <v>-0.1474372215126083</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.06589229832686812</v>
+        <v>-0.09096267504001899</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1449251088034723</v>
+        <v>-0.1535247245072267</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1659228378446266</v>
+        <v>-0.1807193155465539</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02928132692714815</v>
+        <v>-0.05405320782939526</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2175982174652977</v>
+        <v>-0.2234231789517165</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.01683812034914152</v>
+        <v>0.01512131233924912</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2217130112823654</v>
+        <v>0.2162786689348642</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1131185750791248</v>
+        <v>-0.1090048025076441</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2119951025383332</v>
+        <v>0.2363157720546174</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3216986898908575</v>
+        <v>0.3105696155500556</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1695933142003047</v>
+        <v>0.1612263354791609</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06377786494395007</v>
+        <v>0.06329834421806155</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2171599488225953</v>
+        <v>0.2028748382002903</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.02188992243267685</v>
+        <v>-0.03110609057533399</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.682230878361701</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-10.71160551104612</v>
+        <v>-10.71160551104613</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>6.829539056615208</v>
@@ -1939,7 +1939,7 @@
         <v>6.242673123656961</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.801315510600856</v>
+        <v>4.801315510600834</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.6666352778205376</v>
@@ -1948,7 +1948,7 @@
         <v>4.481548779378686</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.321954035538186</v>
+        <v>-1.321954035538209</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-18.78760060902983</v>
+        <v>-19.08119678384983</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.061738778625965</v>
+        <v>-7.11194043769266</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-18.01820338604886</v>
+        <v>-18.36182726326029</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.203554128698511</v>
+        <v>-0.7432011755430118</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.353789281334217</v>
+        <v>-1.389822227170327</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.434717055633513</v>
+        <v>-1.335893986649797</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.211978515941493</v>
+        <v>-4.616093939010738</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.171203007048186</v>
+        <v>-1.812253783650632</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-6.192918355247708</v>
+        <v>-6.54390419062238</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1077940029307375</v>
+        <v>0.3635621002970648</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.57058854871066</v>
+        <v>9.500023246879083</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.128948963939811</v>
+        <v>-2.96528378285426</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.05199960960601</v>
+        <v>14.43011127265952</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.53849745228002</v>
+        <v>14.37446475710642</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.48484251512016</v>
+        <v>11.71178722331819</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.424755794968322</v>
+        <v>6.897476828734902</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.43987635352754</v>
+        <v>9.990735292510216</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.718073203942528</v>
+        <v>3.882116353379256</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.02527905692828954</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1609644008977071</v>
+        <v>-0.1609644008977072</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1154723096459966</v>
@@ -2044,7 +2044,7 @@
         <v>0.1055497125029872</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0811795623031409</v>
+        <v>0.08117956230314052</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.01074928933400406</v>
@@ -2053,7 +2053,7 @@
         <v>0.0722635991474829</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.02131610325320901</v>
+        <v>-0.02131610325320937</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2651399741194172</v>
+        <v>-0.263499606558746</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08352793549076219</v>
+        <v>-0.09646491224340296</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2551508868130032</v>
+        <v>-0.2630515342456392</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01493210395001416</v>
+        <v>-0.01175494932059371</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03723270679381572</v>
+        <v>-0.02238984699526972</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.0377927284896605</v>
+        <v>-0.02168519044896646</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.08044226248894645</v>
+        <v>-0.07166204461074659</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01713310963923702</v>
+        <v>-0.02784530683003874</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.0949508248536074</v>
+        <v>-0.09835171938820603</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.001995853062640394</v>
+        <v>0.005870400222900241</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1710511696297631</v>
+        <v>0.1534317909142794</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.05154024887809994</v>
+        <v>-0.04842504926233179</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2556413230723148</v>
+        <v>0.2628898067280484</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2453648813122498</v>
+        <v>0.2579757367365996</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2122818176666526</v>
+        <v>0.2138320110162358</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.109683649925342</v>
+        <v>0.1168763317648851</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1746494514034639</v>
+        <v>0.1692173633436674</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.06322428957120561</v>
+        <v>0.06567550435891389</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-2.15001967416269</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.28441382824588</v>
+        <v>-3.284413828245869</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-1.860732527080294</v>
@@ -2153,7 +2153,7 @@
         <v>0.1066032647417559</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.226813214770385</v>
+        <v>3.226813214770391</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-4.45818026246188</v>
@@ -2162,7 +2162,7 @@
         <v>-1.020240960607455</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.01915920519665049</v>
+        <v>0.01915920519664494</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-9.372412939261872</v>
+        <v>-9.33204324507707</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.62208203514822</v>
+        <v>-4.39918465262216</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.792124496335662</v>
+        <v>-5.757826448022747</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.014963653568706</v>
+        <v>-3.941125217847655</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.026561379896219</v>
+        <v>-2.279321230324081</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.033251405195203</v>
+        <v>1.019454163421152</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-6.183483172760846</v>
+        <v>-6.213565941972192</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.520262802054527</v>
+        <v>-2.820869004515113</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.69265015499467</v>
+        <v>-1.585594920740538</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-4.801493193071262</v>
+        <v>-4.691210042428642</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.3040804257836935</v>
+        <v>0.1419947609299994</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.5724621153674687</v>
+        <v>-0.7332540770709651</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.4386588486653847</v>
+        <v>0.3563613021423506</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.491858859017622</v>
+        <v>2.34053373209741</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.255059467554559</v>
+        <v>5.330756950331057</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.97003509523641</v>
+        <v>-2.908541899126716</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.8402381330275299</v>
+        <v>0.7096594745592839</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.57894865351389</v>
+        <v>1.644335068896816</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.0554593613727218</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.08472084957510471</v>
+        <v>-0.08472084957510444</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.05952805349719932</v>
@@ -2258,7 +2258,7 @@
         <v>0.003410422913647227</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1032313386683933</v>
+        <v>0.1032313386683935</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1275582319072593</v>
@@ -2267,7 +2267,7 @@
         <v>-0.02919131246222538</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.0005481865235937185</v>
+        <v>0.0005481865235935597</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.234751159396934</v>
+        <v>-0.2340673848795728</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1167606112627715</v>
+        <v>-0.1126170649080034</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1450855884744012</v>
+        <v>-0.1427479976515139</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1253650471807879</v>
+        <v>-0.1245216087097284</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.06320401359952003</v>
+        <v>-0.07108903390902903</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03122287687331767</v>
+        <v>0.03140103622864874</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1721047098959322</v>
+        <v>-0.1738810568833372</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.07029091110726433</v>
+        <v>-0.07781896619456979</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.04705409542205791</v>
+        <v>-0.04432924909929978</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1275571558756261</v>
+        <v>-0.1239101902150563</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.007991491052590926</v>
+        <v>0.002667010275298883</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.01517156721067198</v>
+        <v>-0.01895840094147887</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01520880358886989</v>
+        <v>0.01164709874062929</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.08459853079296785</v>
+        <v>0.07778420505117613</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1736338363842744</v>
+        <v>0.1786657228818977</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.08658509951423649</v>
+        <v>-0.08579957110998013</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02472410280995363</v>
+        <v>0.02131034264357142</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.04585798757490173</v>
+        <v>0.04830098641073492</v>
       </c>
     </row>
     <row r="52">
